--- a/calculator/data.xlsx
+++ b/calculator/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" activeTab="3"/>
+    <workbookView windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1487,8 +1487,8 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14">
-        <v>0.0255</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1621,7 +1621,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1831,7 +1831,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
